--- a/biology/Botanique/Crepis_foetida/Crepis_foetida.xlsx
+++ b/biology/Botanique/Crepis_foetida/Crepis_foetida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crepis foetida, la Crépide fétide, est une espèce de plante à fleurs de la famille des Astéracées.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
-Sa floraison a lieu de mai à août[2].
+Sa floraison a lieu de mai à août.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anisoderis foetida (L.) Fisch. &amp; C.A.Mey.
 Arnoseris foetida (L.) Dumort.
@@ -581,18 +597,20 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 octobre 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 octobre 2016) :
 sous-espèce Crepis foetida subsp. foetida
 sous-espèce Crepis foetida subsp. glandulosa
 sous-espèce Crepis foetida subsp. rhoeadifolia
 sous-espèce Crepis foetida subsp. sitiaca
 variété Crepis foetida var. foetida
-Selon The Plant List            (7 octobre 2016)[1] :
+Selon The Plant List            (7 octobre 2016) :
 sous-espèce Crepis foetida subsp. glandulosa (C.Presl) Arcang.
 sous-espèce Crepis foetida subsp. rhoeadifolia (M.Bieb.) Čelak.
-Selon Tropicos                                           (7 octobre 2016)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 octobre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Crepis foetida subsp. commutata (Spreng.) Babc.
 sous-espèce Crepis foetida subsp. foetida
 sous-espèce Crepis foetida subsp. rhoeadifolia Čelak.
@@ -626,7 +644,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est sur liste rouge des plantes d'Île-de-France et sur celle du Nord-Pas-de-Calais.
 En Suisse, l'espèce est sur le liste rouge.
